--- a/data/test 1_2_2024-01-24.xlsx
+++ b/data/test 1_2_2024-01-24.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Breakfast" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Morning snack" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lunch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Afternoon Snack" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Dinner" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Midnight Snack" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Breakfast" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Morning snack" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lunch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Afternoon Snack" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dinner" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Midnight Snack" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -982,6 +982,144 @@
       </c>
       <c r="E7" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Beef Sour Soup</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>H0004</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Beef, shank, raw</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Beef Sour Soup</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>D0029</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Water spinach/ Morning glory, raw</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Beef Sour Soup</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>D0007</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Lemon grass, leaf, fresh, raw</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Beef Sour Soup</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>N0001</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Salt, table</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Beef Sour Soup</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>G0001</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Sugar, granulated</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Beef Sour Soup</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>L0001</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Oil, soybean</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/data/test 1_2_2024-01-24.xlsx
+++ b/data/test 1_2_2024-01-24.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Breakfast" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Morning snack" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Lunch" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Afternoon Snack" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Dinner" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Midnight Snack" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Breakfast" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Morning snack" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lunch" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Afternoon Snack" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Dinner" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Midnight Snack" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -775,14 +775,272 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Food Code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Food Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Ingredient Code</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Ingrdient</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1 person (g)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Chicken Stir Fried Ginger</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>H0003</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Chicken, breast, raw</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Chicken Stir Fried Ginger</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B0001</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Ginger, root, mature, fresh</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Chicken Stir Fried Ginger</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>N0001</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Salt, table</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Chicken Stir Fried Ginger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>G0001</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sugar, granulated</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Chicken Stir Fried Ginger</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N0002</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Sauce, soy</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Chicken Stir Fried Ginger</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N0009</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Pepper, black, powder, raw</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Beef Lettuce wraps (Lor Lak SachKor)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>H0004</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Beef, shank, raw</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Beef Lettuce wraps (Lor Lak SachKor)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>D0019</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Tomato, fresh raw</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>115.5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Beef Lettuce wraps (Lor Lak SachKor)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B0003</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Onion, large, fresh</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Beef Lettuce wraps (Lor Lak SachKor)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>D0011</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cucumber, small, fresh, raw </t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
